--- a/Projects/CCRU_SAND/Data/KPIs_2020/PoS 2020 - IC.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2020/PoS 2020 - IC.xlsx
@@ -11,7 +11,7 @@
     <sheet name="ALL" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$965</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -63638,7 +63638,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AZ965"/>
+  <autoFilter ref="A1:AZ964"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2020/PoS 2020 - IC.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2020/PoS 2020 - IC.xlsx
@@ -12,7 +12,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$965</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3075,16 +3077,16 @@
   </sheetPr>
   <dimension ref="A1:AZ965"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="P471" activeCellId="5" sqref="P71 P119 P167 P285 P386 P471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="52" min="1" style="0" width="32.9068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="53" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="52" min="1" style="0" width="37.9352226720648"/>
+    <col collapsed="false" hidden="false" max="1025" min="53" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27219,6 +27221,9 @@
       <c r="N386" s="0" t="s">
         <v>629</v>
       </c>
+      <c r="O386" s="0" t="n">
+        <v>0.04</v>
+      </c>
       <c r="P386" s="0" t="s">
         <v>297</v>
       </c>
@@ -27269,9 +27274,6 @@
       <c r="N387" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="O387" s="0" t="n">
-        <v>0.04</v>
-      </c>
       <c r="P387" s="0" t="s">
         <v>632</v>
       </c>
@@ -32627,6 +32629,9 @@
       <c r="N471" s="0" t="s">
         <v>725</v>
       </c>
+      <c r="O471" s="0" t="n">
+        <v>0.04</v>
+      </c>
       <c r="P471" s="0" t="s">
         <v>297</v>
       </c>
@@ -32676,9 +32681,6 @@
       </c>
       <c r="N472" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="O472" s="0" t="n">
-        <v>0.04</v>
       </c>
       <c r="P472" s="0" t="s">
         <v>632</v>
